--- a/biology/Médecine/Centre_hospitalier_régional_universitaire_de_Tours/Centre_hospitalier_régional_universitaire_de_Tours.xlsx
+++ b/biology/Médecine/Centre_hospitalier_régional_universitaire_de_Tours/Centre_hospitalier_régional_universitaire_de_Tours.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_r%C3%A9gional_universitaire_de_Tours</t>
+          <t>Centre_hospitalier_régional_universitaire_de_Tours</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le CHRU de Tours est un centre hospitalier régional universitaire français. Né au XVIIe siècle sous le nom d'hôpital général de la Charité, le CHRU de Tours emploie plus de 9 000 personnes dont 1 500 médecins, faisant de lui le premier employeur de la région Centre-Val de Loire. Le CHRU de Tours dispose de plus de 2 000 lits, reçoit près de 575 000 consultations externes et pratique 40 000 interventions chirurgicales chaque année[1].
+Le CHRU de Tours est un centre hospitalier régional universitaire français. Né au XVIIe siècle sous le nom d'hôpital général de la Charité, le CHRU de Tours emploie plus de 9 000 personnes dont 1 500 médecins, faisant de lui le premier employeur de la région Centre-Val de Loire. Le CHRU de Tours dispose de plus de 2 000 lits, reçoit près de 575 000 consultations externes et pratique 40 000 interventions chirurgicales chaque année.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_r%C3%A9gional_universitaire_de_Tours</t>
+          <t>Centre_hospitalier_régional_universitaire_de_Tours</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Établissements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hôpitaux de Tours comptent six établissements répartis sur le territoire et dans les communes voisines.
 Liste des établissements :
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_r%C3%A9gional_universitaire_de_Tours</t>
+          <t>Centre_hospitalier_régional_universitaire_de_Tours</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,11 +564,48 @@
           <t>Campus Tonnellé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le site Tonnellé est situé à l'ouest de la ville face au Jardin botanique de Tours.
-Formation et recherche : la faculté de médecine
-Le pôle formation du CHRU de Tours comprend la faculté de Médecine située sur le site Bretonneau du CHU (4 100 étudiants).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site Tonnellé est situé à l'ouest de la ville face au Jardin botanique de Tours.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_régional_universitaire_de_Tours</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_r%C3%A9gional_universitaire_de_Tours</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Campus Tonnellé</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Formation et recherche : la faculté de médecine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pôle formation du CHRU de Tours comprend la faculté de Médecine située sur le site Bretonneau du CHU (4 100 étudiants).
 L'université de Tours dispose aussi de laboratoires de recherche, c'est là qu'en 1976 le professeur virologue Philippe Maupas découvre le vaccin contre l'hépatite B.
 Équipes de recherche à la faculté de médecine de Tours
 Bactéries et risque materno-fœtal
@@ -578,8 +629,43 @@
 Physiologie des Cellules Cardiaques et Vasculaires (PCCV)
 Protéases et Vectorisation Pulmonaires (PVP) (Université - Inserm U 618)
 Psychologie des Âges de la Vie (PAV)
-Infrastructures universitaires
-4 bâtiments principaux
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_régional_universitaire_de_Tours</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_r%C3%A9gional_universitaire_de_Tours</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Campus Tonnellé</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Infrastructures universitaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>4 bâtiments principaux
 1 extension de 5 000 m2 (ouverture en 2014)
 1 bibliothèque universitaire
 11 052 m2 de laboratoires de recherche
